--- a/matrix/reviewed/notification.xlsx
+++ b/matrix/reviewed/notification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SymlexVPNTestCases\matrix\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C2A1FC-94CF-41D1-9D15-AC2B5522799F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F91307B-C6FE-4C55-901E-41D1E727E460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -102,12 +102,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC9DAF8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -149,9 +143,6 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -175,7 +166,43 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -312,6 +339,564 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1030" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91104C66-9DA6-4389-A327-ACAF79AE16F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1031" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1031"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09A3527-3439-44DD-A7D0-511879174BD5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1032"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59887BA7-4298-4250-8022-034501410F37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1033"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD85FC8A-7C3E-4955-8E95-A8110F3214C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1034"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E89883-73B0-4966-8F3A-D94088BF5806}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1035"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D698A4E6-707C-402B-A39D-4FF7DF6E9035}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1036"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0281FCAC-EAF1-458D-8586-ED07635C6EAC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1037"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89D5D3D-861A-4798-818E-10DEC52A83CF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>167640</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="396240" cy="281940"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1038"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46481454-7BE4-4F3E-986A-BFE0D9AE48B8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -585,7 +1170,7 @@
   <dimension ref="B2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,32 +1219,16 @@
       <c r="B4" s="3">
         <v>45246</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -712,6 +1281,204 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1030" r:id="rId5" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>91440</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1031" r:id="rId6" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1032" r:id="rId7" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1033" r:id="rId8" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1034" r:id="rId9" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1035" r:id="rId10" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1036" r:id="rId11" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1037" r:id="rId12" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1038" r:id="rId13" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>167640</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>563880</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
